--- a/lab8/lab8-yo.xlsx
+++ b/lab8/lab8-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0C17A-CF4C-4EA9-A43B-27C4A3B2511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CDECB-5613-46A1-8270-617EE3358F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>So 10^-3</t>
   </si>
@@ -98,9 +98,6 @@
     <t>P m</t>
   </si>
   <si>
-    <t>A(10^-7) m2</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -133,16 +130,27 @@
   <si>
     <t>แมนนิ่ง</t>
   </si>
+  <si>
+    <t>A m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>v= 88.3 sqrt(RSo) - 0.392</t>
+  </si>
+  <si>
+    <t>v = 122(R2/3So1/2) - 0.118</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="187" formatCode="0.000"/>
     <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="189" formatCode="0.000000"/>
-    <numFmt numFmtId="190" formatCode="0.00000"/>
+    <numFmt numFmtId="191" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -188,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,19 +216,13 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -238,6 +240,2123 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>เชซี</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="3.0000000000000009E-3"/>
+            <c:backward val="1.0400000000000001E-2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16769335083114612"/>
+                  <c:y val="4.7499270924467776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 88.3x - 0.392</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$18:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4530702128521734E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4402945981332309E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.420182133824068E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3914188843148229E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3682192110637132E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2982223830808817E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2011080511172655E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.163010894025779E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1064649591750988E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0418537247010588E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$18:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90547723177500683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91257195629875409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83461028707255425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84349359711678551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81116322834853261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73131490419774747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67984431565171566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60521697028384669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59336396574806516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54810287891037146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE0E-4A8C-ACC6-BF369FE5AC85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1488982991"/>
+        <c:axId val="1932407679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1488982991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932407679"/>
+        <c:crossesAt val="-0.60000000000000009"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1932407679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488982991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>แมนนิ่ง</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="3.0000000000000009E-3"/>
+            <c:backward val="5.2000000000000006E-3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10228397187889662"/>
+                  <c:y val="2.7004791447819306E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$31:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2801916289704219E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1832665381379698E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0312592923454332E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8151163023686444E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6418615719702739E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.125090385229761E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4234402960102431E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1532321164109163E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.757604211708108E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3137434909265903E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$31:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90547723177500683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91257195629875409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83461028707255425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84349359711678551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81116322834853261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73131490419774747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67984431565171566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60521697028384669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59336396574806516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54810287891037146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E852-418A-A1CF-48DCD840CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1488982991"/>
+        <c:axId val="1932407679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1488982991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932407679"/>
+        <c:crossesAt val="-0.8"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1932407679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488982991"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="แผนภูมิ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD6BDEA-2E5D-0EB6-30B2-8AD0C06454E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ACC2B9-7A09-428C-B776-08C9228CA4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09815-60D7-F244-973D-B8EA8DA4B9D3}">
-  <dimension ref="C1:W41"/>
+  <dimension ref="C1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -550,7 +2669,10 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.8984375" customWidth="1"/>
     <col min="11" max="11" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.19921875" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.3984375" customWidth="1"/>
     <col min="21" max="21" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -635,7 +2757,7 @@
         <v>13</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>20</v>
@@ -679,37 +2801,37 @@
       <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <f>D11/E11</f>
         <v>8.5567598402738147E-3</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>F11</f>
         <v>63</v>
       </c>
-      <c r="N4" s="9">
-        <f>M4*E$1/10</f>
-        <v>945</v>
+      <c r="N4" s="8">
+        <f>M4*(10^-3)*E$1*(10^-3)</f>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="O4" s="3">
         <f>(2*M4+E$1)/1000</f>
         <v>0.27600000000000002</v>
       </c>
-      <c r="P4" s="8">
-        <f>L4/(N4*10^-7)</f>
-        <v>90.547723177500686</v>
-      </c>
-      <c r="Q4" s="10">
-        <f>(N4*10^-7)/O4</f>
-        <v>3.4239130434782602E-4</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="P4" s="6">
+        <f>L4/(N4)</f>
+        <v>0.90547723177500683</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>(N4)/O4</f>
+        <v>3.4239130434782605E-2</v>
+      </c>
+      <c r="R4" s="9">
         <f>SQRT(Q4*H$8*10^-3)</f>
-        <v>1.4530702128521733E-3</v>
-      </c>
-      <c r="S4" s="11">
-        <f>(Q4^2/3)*((H$8*10^-3)^0.5)</f>
-        <v>3.0686646823729187E-9</v>
+        <v>1.4530702128521734E-2</v>
+      </c>
+      <c r="S4" s="8">
+        <f>(Q4^(2/3))*((H$8*10^-3)^0.5)</f>
+        <v>8.2801916289704219E-3</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -739,37 +2861,37 @@
       <c r="K5" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:L13" si="0">D12/E12</f>
         <v>8.3500334001335996E-3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" ref="M5:M13" si="1">F12</f>
         <v>61</v>
       </c>
-      <c r="N5" s="9">
-        <f t="shared" ref="N5:N13" si="2">M5*E$1/10</f>
-        <v>915</v>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N13" si="2">M5*(10^-3)*E$1*(10^-3)</f>
+        <v>9.1500000000000001E-3</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ref="O5:O13" si="3">(2*M5+E$1)/1000</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="P5" s="8">
-        <f t="shared" ref="P5:P13" si="4">L5/(N5*10^-7)</f>
-        <v>91.257195629875397</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" ref="Q5:Q13" si="5">(N5*10^-7)/O5</f>
-        <v>3.3639705882352938E-4</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="P5" s="6">
+        <f t="shared" ref="P5:P13" si="4">L5/(N5)</f>
+        <v>0.91257195629875409</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" ref="Q5:Q13" si="5">(N5)/O5</f>
+        <v>3.363970588235294E-2</v>
+      </c>
+      <c r="R5" s="9">
         <f t="shared" ref="R5:R13" si="6">SQRT(Q5*H$8*10^-3)</f>
-        <v>1.4402945981332306E-3</v>
-      </c>
-      <c r="S5" s="11">
-        <f t="shared" ref="S5:S13" si="7">(Q5^2/3)*((H$8*10^-3)^0.5)</f>
-        <v>2.9621589708260736E-9</v>
+        <v>1.4402945981332309E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" ref="S5:S13" si="7">(Q5^(2/3))*((H$8*10^-3)^0.5)</f>
+        <v>8.1832665381379698E-3</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -799,37 +2921,37 @@
       <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>7.2611094975312228E-3</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>870</v>
+        <v>8.7000000000000011E-3</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="3"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <f t="shared" si="4"/>
-        <v>83.461028707255437</v>
-      </c>
-      <c r="Q6" s="10">
+        <v>0.83461028707255425</v>
+      </c>
+      <c r="Q6" s="9">
         <f t="shared" si="5"/>
-        <v>3.2706766917293229E-4</v>
-      </c>
-      <c r="R6" s="7">
+        <v>3.2706766917293233E-2</v>
+      </c>
+      <c r="R6" s="9">
         <f t="shared" si="6"/>
-        <v>1.4201821338240678E-3</v>
-      </c>
-      <c r="S6" s="11">
+        <v>1.420182133824068E-2</v>
+      </c>
+      <c r="S6" s="8">
         <f t="shared" si="7"/>
-        <v>2.8001365735985008E-9</v>
+        <v>8.0312592923454332E-3</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -859,37 +2981,37 @@
       <c r="K7" s="3">
         <v>4</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>6.8322981366459624E-3</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <f t="shared" si="2"/>
-        <v>810</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="3"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <f t="shared" si="4"/>
-        <v>84.349359711678559</v>
-      </c>
-      <c r="Q7" s="10">
+        <v>0.84349359711678551</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="5"/>
-        <v>3.1395348837209299E-4</v>
-      </c>
-      <c r="R7" s="7">
+        <v>3.1395348837209298E-2</v>
+      </c>
+      <c r="R7" s="9">
         <f t="shared" si="6"/>
-        <v>1.3914188843148229E-3</v>
-      </c>
-      <c r="S7" s="11">
+        <v>1.3914188843148229E-2</v>
+      </c>
+      <c r="S7" s="8">
         <f t="shared" si="7"/>
-        <v>2.5800885293146823E-9</v>
+        <v>7.8151163023686444E-3</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -913,37 +3035,37 @@
       <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>6.2053986968662747E-3</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <f t="shared" si="2"/>
-        <v>765</v>
+        <v>7.6500000000000005E-3</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="3"/>
         <v>0.252</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <f t="shared" si="4"/>
-        <v>81.116322834853264</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>0.81116322834853261</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="5"/>
-        <v>3.035714285714286E-4</v>
-      </c>
-      <c r="R8" s="7">
+        <v>3.035714285714286E-2</v>
+      </c>
+      <c r="R8" s="9">
         <f t="shared" si="6"/>
-        <v>1.3682192110637131E-3</v>
-      </c>
-      <c r="S8" s="11">
+        <v>1.3682192110637132E-2</v>
+      </c>
+      <c r="S8" s="8">
         <f t="shared" si="7"/>
-        <v>2.4122691949643128E-9</v>
+        <v>7.6418615719702739E-3</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -962,37 +3084,37 @@
       <c r="K9" s="3">
         <v>6</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>4.7169811320754715E-3</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f t="shared" si="2"/>
-        <v>645</v>
+        <v>6.45E-3</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="3"/>
         <v>0.23599999999999999</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <f t="shared" si="4"/>
-        <v>73.131490419774764</v>
-      </c>
-      <c r="Q9" s="10">
+        <v>0.73131490419774747</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="5"/>
-        <v>2.7330508474576271E-4</v>
-      </c>
-      <c r="R9" s="7">
+        <v>2.7330508474576274E-2</v>
+      </c>
+      <c r="R9" s="9">
         <f t="shared" si="6"/>
-        <v>1.2982223830808818E-3</v>
-      </c>
-      <c r="S9" s="11">
+        <v>1.2982223830808817E-2</v>
+      </c>
+      <c r="S9" s="8">
         <f t="shared" si="7"/>
-        <v>1.9552369929062809E-9</v>
+        <v>7.125090385229761E-3</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1019,37 +3141,37 @@
       <c r="K10" s="3">
         <v>7</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>3.4672060098237503E-3</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f t="shared" si="2"/>
-        <v>510</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="3"/>
         <v>0.218</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <f t="shared" si="4"/>
-        <v>67.984431565171576</v>
-      </c>
-      <c r="Q10" s="10">
+        <v>0.67984431565171566</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="5"/>
-        <v>2.3394495412844035E-4</v>
-      </c>
-      <c r="R10" s="7">
+        <v>2.3394495412844038E-2</v>
+      </c>
+      <c r="R10" s="9">
         <f t="shared" si="6"/>
-        <v>1.2011080511172654E-3</v>
-      </c>
-      <c r="S10" s="11">
+        <v>1.2011080511172655E-2</v>
+      </c>
+      <c r="S10" s="8">
         <f t="shared" si="7"/>
-        <v>1.4326211126730227E-9</v>
+        <v>6.4234402960102431E-3</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1076,37 +3198,37 @@
       <c r="K11" s="3">
         <v>8</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>2.8142589118198874E-3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <f t="shared" si="2"/>
-        <v>465</v>
+        <v>4.6500000000000005E-3</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="3"/>
         <v>0.21199999999999999</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <f t="shared" si="4"/>
-        <v>60.521697028384679</v>
-      </c>
-      <c r="Q11" s="10">
+        <v>0.60521697028384669</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="5"/>
-        <v>2.1933962264150943E-4</v>
-      </c>
-      <c r="R11" s="7">
+        <v>2.1933962264150945E-2</v>
+      </c>
+      <c r="R11" s="9">
         <f t="shared" si="6"/>
-        <v>1.1630108940257789E-3</v>
-      </c>
-      <c r="S11" s="11">
-        <f>(Q11^2/3)*((H$8*10^-3)^0.5)</f>
-        <v>1.2593259888754392E-9</v>
+        <v>1.163010894025779E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="7"/>
+        <v>6.1532321164109163E-3</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1133,37 +3255,37 @@
       <c r="K12" s="3">
         <v>9</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>2.4031240612796636E-3</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f t="shared" si="2"/>
-        <v>405</v>
+        <v>4.0499999999999998E-3</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="3"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <f t="shared" si="4"/>
-        <v>59.336396574806514</v>
-      </c>
-      <c r="Q12" s="10">
+        <v>0.59336396574806516</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="5"/>
-        <v>1.9852941176470588E-4</v>
-      </c>
-      <c r="R12" s="7">
+        <v>1.9852941176470587E-2</v>
+      </c>
+      <c r="R12" s="9">
         <f t="shared" si="6"/>
-        <v>1.1064649591750989E-3</v>
-      </c>
-      <c r="S12" s="11">
+        <v>1.1064649591750988E-2</v>
+      </c>
+      <c r="S12" s="8">
         <f t="shared" si="7"/>
-        <v>1.0317006251519999E-9</v>
+        <v>5.757604211708108E-3</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1190,37 +3312,37 @@
       <c r="K13" s="3">
         <v>10</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>1.8909549322407816E-3</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f t="shared" si="2"/>
-        <v>345</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <f t="shared" si="4"/>
-        <v>54.810287891037149</v>
-      </c>
-      <c r="Q13" s="10">
+        <v>0.54810287891037146</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="5"/>
-        <v>1.760204081632653E-4</v>
-      </c>
-      <c r="R13" s="7">
+        <v>1.760204081632653E-2</v>
+      </c>
+      <c r="R13" s="9">
         <f t="shared" si="6"/>
-        <v>1.0418537247010586E-3</v>
-      </c>
-      <c r="S13" s="11">
+        <v>1.0418537247010588E-2</v>
+      </c>
+      <c r="S13" s="8">
         <f t="shared" si="7"/>
-        <v>8.1101713418721059E-10</v>
+        <v>5.3137434909265903E-3</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1320,7 +3442,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>7</v>
       </c>
@@ -1337,7 +3459,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>11</v>
@@ -1346,36 +3468,17 @@
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>8</v>
       </c>
@@ -1395,46 +3498,28 @@
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="8">
         <f>R4</f>
-        <v>1.4530702128521733E-3</v>
-      </c>
-      <c r="M18" s="8">
+        <v>1.4530702128521734E-2</v>
+      </c>
+      <c r="M18" s="6">
         <f>P4</f>
-        <v>90.547723177500686</v>
-      </c>
-      <c r="N18" s="11">
+        <v>0.90547723177500683</v>
+      </c>
+      <c r="N18" s="8">
         <f>L18^2</f>
-        <v>2.11141304347826E-6</v>
-      </c>
-      <c r="O18" s="11">
+        <v>2.1114130434782605E-4</v>
+      </c>
+      <c r="O18" s="8">
         <f>L18*M18</f>
-        <v>0.13157219939081058</v>
+        <v>1.3157219939081059E-2</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="11">
-        <f>AVERAGE(L18:L27)</f>
-        <v>1.2883845052288091E-3</v>
-      </c>
-      <c r="S18" s="11">
-        <f>AVERAGE(M18:M27)</f>
-        <v>74.651593354033793</v>
-      </c>
-      <c r="T18" s="11">
-        <f>((O28/10)-(R18*S18))/((N28/10)-(R18^2))</f>
-        <v>88341.472345399539</v>
-      </c>
-      <c r="U18" s="11">
-        <f>S18-T18*R18</f>
-        <v>-39.166190784878324</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="X18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>9</v>
       </c>
@@ -1454,46 +3539,25 @@
       <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <f t="shared" ref="L19:L27" si="9">R5</f>
-        <v>1.4402945981332306E-3</v>
-      </c>
-      <c r="M19" s="8">
+        <v>1.4402945981332309E-2</v>
+      </c>
+      <c r="M19" s="6">
         <f t="shared" ref="M19:M27" si="10">P5</f>
-        <v>91.257195629875397</v>
-      </c>
-      <c r="N19" s="11">
+        <v>0.91257195629875409</v>
+      </c>
+      <c r="N19" s="8">
         <f t="shared" ref="N19:N27" si="11">L19^2</f>
-        <v>2.0744485294117641E-6</v>
-      </c>
-      <c r="O19" s="11">
+        <v>2.0744485294117652E-4</v>
+      </c>
+      <c r="O19" s="8">
         <f t="shared" ref="O19:O27" si="12">L19*M19</f>
-        <v>0.131437245906497</v>
+        <v>1.3143724590649703E-2</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="11">
-        <f>AVERAGE(L31:L40)</f>
-        <v>2.0313219804870445E-9</v>
-      </c>
-      <c r="S19" s="11">
-        <f>AVERAGE(M31:M40)</f>
-        <v>74.651593354033793</v>
-      </c>
-      <c r="T19" s="11">
-        <f>((O41/10)-(R19*S19))/((N41/10)-(R19^2))</f>
-        <v>15717810337.228315</v>
-      </c>
-      <c r="U19" s="11">
-        <f>S19-T19*R19</f>
-        <v>42.723659730895434</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>10</v>
       </c>
@@ -1513,21 +3577,21 @@
       <c r="K20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="8">
         <f t="shared" si="9"/>
-        <v>1.4201821338240678E-3</v>
-      </c>
-      <c r="M20" s="8">
+        <v>1.420182133824068E-2</v>
+      </c>
+      <c r="M20" s="6">
         <f t="shared" si="10"/>
-        <v>83.461028707255437</v>
-      </c>
-      <c r="N20" s="11">
+        <v>0.83461028707255425</v>
+      </c>
+      <c r="N20" s="8">
         <f t="shared" si="11"/>
-        <v>2.0169172932330824E-6</v>
-      </c>
-      <c r="O20" s="11">
+        <v>2.0169172932330831E-4</v>
+      </c>
+      <c r="O20" s="8">
         <f t="shared" si="12"/>
-        <v>0.11852986184062181</v>
+        <v>1.185298618406218E-2</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1538,7 +3602,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1550,21 +3614,21 @@
       <c r="K21" s="3">
         <v>4</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <f t="shared" si="9"/>
-        <v>1.3914188843148229E-3</v>
-      </c>
-      <c r="M21" s="8">
+        <v>1.3914188843148229E-2</v>
+      </c>
+      <c r="M21" s="6">
         <f t="shared" si="10"/>
-        <v>84.349359711678559</v>
-      </c>
-      <c r="N21" s="11">
+        <v>0.84349359711678551</v>
+      </c>
+      <c r="N21" s="8">
         <f t="shared" si="11"/>
-        <v>1.9360465116279064E-6</v>
-      </c>
-      <c r="O21" s="11">
+        <v>1.9360465116279065E-4</v>
+      </c>
+      <c r="O21" s="8">
         <f t="shared" si="12"/>
-        <v>0.11736529198269345</v>
+        <v>1.1736529198269344E-2</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1575,7 +3639,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1587,21 +3651,21 @@
       <c r="K22" s="3">
         <v>5</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <f t="shared" si="9"/>
-        <v>1.3682192110637131E-3</v>
-      </c>
-      <c r="M22" s="8">
+        <v>1.3682192110637132E-2</v>
+      </c>
+      <c r="M22" s="6">
         <f t="shared" si="10"/>
-        <v>81.116322834853264</v>
-      </c>
-      <c r="N22" s="11">
+        <v>0.81116322834853261</v>
+      </c>
+      <c r="N22" s="8">
         <f t="shared" si="11"/>
-        <v>1.8720238095238095E-6</v>
-      </c>
-      <c r="O22" s="11">
+        <v>1.87202380952381E-4</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="12"/>
-        <v>0.11098491123349238</v>
+        <v>1.1098491123349239E-2</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1612,7 +3676,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1624,21 +3688,21 @@
       <c r="K23" s="3">
         <v>6</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <f t="shared" si="9"/>
-        <v>1.2982223830808818E-3</v>
-      </c>
-      <c r="M23" s="8">
+        <v>1.2982223830808817E-2</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="10"/>
-        <v>73.131490419774764</v>
-      </c>
-      <c r="N23" s="11">
+        <v>0.73131490419774747</v>
+      </c>
+      <c r="N23" s="8">
         <f t="shared" si="11"/>
-        <v>1.6853813559322038E-6</v>
-      </c>
-      <c r="O23" s="11">
+        <v>1.6853813559322036E-4</v>
+      </c>
+      <c r="O23" s="8">
         <f t="shared" si="12"/>
-        <v>9.494093777101667E-2</v>
+        <v>9.4940937771016646E-3</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1649,7 +3713,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1661,21 +3725,21 @@
       <c r="K24" s="3">
         <v>7</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="8">
         <f t="shared" si="9"/>
-        <v>1.2011080511172654E-3</v>
-      </c>
-      <c r="M24" s="8">
+        <v>1.2011080511172655E-2</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="10"/>
-        <v>67.984431565171576</v>
-      </c>
-      <c r="N24" s="11">
+        <v>0.67984431565171566</v>
+      </c>
+      <c r="N24" s="8">
         <f t="shared" si="11"/>
-        <v>1.4426605504587154E-6</v>
-      </c>
-      <c r="O24" s="11">
+        <v>1.4426605504587158E-4</v>
+      </c>
+      <c r="O24" s="8">
         <f t="shared" si="12"/>
-        <v>8.1656648103558327E-2</v>
+        <v>8.1656648103558323E-3</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1686,7 +3750,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1698,21 +3762,21 @@
       <c r="K25" s="3">
         <v>8</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="8">
         <f t="shared" si="9"/>
-        <v>1.1630108940257789E-3</v>
-      </c>
-      <c r="M25" s="8">
+        <v>1.163010894025779E-2</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="10"/>
-        <v>60.521697028384679</v>
-      </c>
-      <c r="N25" s="11">
+        <v>0.60521697028384669</v>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" si="11"/>
-        <v>1.3525943396226415E-6</v>
-      </c>
-      <c r="O25" s="11">
+        <v>1.3525943396226417E-4</v>
+      </c>
+      <c r="O25" s="8">
         <f>L25*M25</f>
-        <v>7.0387392968938992E-2</v>
+        <v>7.0387392968938988E-3</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1723,7 +3787,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1735,21 +3799,21 @@
       <c r="K26" s="3">
         <v>9</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <f t="shared" si="9"/>
-        <v>1.1064649591750989E-3</v>
-      </c>
-      <c r="M26" s="8">
+        <v>1.1064649591750988E-2</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="10"/>
-        <v>59.336396574806514</v>
-      </c>
-      <c r="N26" s="11">
+        <v>0.59336396574806516</v>
+      </c>
+      <c r="N26" s="8">
         <f t="shared" si="11"/>
-        <v>1.2242647058823532E-6</v>
-      </c>
-      <c r="O26" s="11">
+        <v>1.2242647058823531E-4</v>
+      </c>
+      <c r="O26" s="8">
         <f t="shared" si="12"/>
-        <v>6.5653643613740764E-2</v>
+        <v>6.5653643613740762E-3</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1760,7 +3824,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1772,21 +3836,21 @@
       <c r="K27" s="3">
         <v>10</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="8">
         <f t="shared" si="9"/>
-        <v>1.0418537247010586E-3</v>
-      </c>
-      <c r="M27" s="8">
+        <v>1.0418537247010588E-2</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="10"/>
-        <v>54.810287891037149</v>
-      </c>
-      <c r="N27" s="11">
+        <v>0.54810287891037146</v>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" si="11"/>
-        <v>1.0854591836734692E-6</v>
-      </c>
-      <c r="O27" s="11">
+        <v>1.0854591836734696E-4</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="12"/>
-        <v>5.7104302591214386E-2</v>
+        <v>5.7104302591214386E-3</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1797,7 +3861,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1811,11 +3875,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="2">
         <f>SUM(N18:N27)</f>
-        <v>1.6801209322844205E-5</v>
+        <v>1.6801209322844211E-3</v>
       </c>
       <c r="O28" s="2">
         <f>SUM(O18:O27)</f>
-        <v>0.97963243540258427</v>
+        <v>9.7963243540258427E-2</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1826,7 +3890,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1849,7 +3913,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1858,7 +3922,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>11</v>
@@ -1867,13 +3931,13 @@
         <v>3</v>
       </c>
       <c r="M30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1884,7 +3948,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1896,21 +3960,21 @@
       <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="8">
         <f>S4</f>
-        <v>3.0686646823729187E-9</v>
-      </c>
-      <c r="M31" s="8">
+        <v>8.2801916289704219E-3</v>
+      </c>
+      <c r="M31" s="6">
         <f>P4</f>
-        <v>90.547723177500686</v>
-      </c>
-      <c r="N31" s="11">
+        <v>0.90547723177500683</v>
+      </c>
+      <c r="N31" s="8">
         <f>L31^2</f>
-        <v>9.4167029328428862E-18</v>
-      </c>
-      <c r="O31" s="11">
+        <v>6.8561573412471852E-5</v>
+      </c>
+      <c r="O31" s="8">
         <f>L31*M31</f>
-        <v>2.7786060018407612E-7</v>
+        <v>7.4975249947667223E-3</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1921,7 +3985,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1933,21 +3997,21 @@
       <c r="K32" s="3">
         <v>2</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="8">
         <f t="shared" ref="L32:L40" si="13">S5</f>
-        <v>2.9621589708260736E-9</v>
-      </c>
-      <c r="M32" s="8">
+        <v>8.1832665381379698E-3</v>
+      </c>
+      <c r="M32" s="6">
         <f t="shared" ref="M32:M40" si="14">P5</f>
-        <v>91.257195629875397</v>
-      </c>
-      <c r="N32" s="11">
+        <v>0.91257195629875409</v>
+      </c>
+      <c r="N32" s="8">
         <f t="shared" ref="N32:N39" si="15">L32^2</f>
-        <v>8.7743857684453835E-18</v>
-      </c>
-      <c r="O32" s="11">
+        <v>6.6965851234208589E-5</v>
+      </c>
+      <c r="O32" s="8">
         <f t="shared" ref="O32:O40" si="16">L32*M32</f>
-        <v>2.7031832068746538E-7</v>
+        <v>7.4678195536227003E-3</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -1970,21 +4034,21 @@
       <c r="K33" s="3">
         <v>3</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="8">
         <f t="shared" si="13"/>
-        <v>2.8001365735985008E-9</v>
-      </c>
-      <c r="M33" s="8">
+        <v>8.0312592923454332E-3</v>
+      </c>
+      <c r="M33" s="6">
         <f t="shared" si="14"/>
-        <v>83.461028707255437</v>
-      </c>
-      <c r="N33" s="11">
+        <v>0.83461028707255425</v>
+      </c>
+      <c r="N33" s="8">
         <f t="shared" si="15"/>
-        <v>7.8407648308039521E-18</v>
-      </c>
-      <c r="O33" s="11">
+        <v>6.4501125820884864E-5</v>
+      </c>
+      <c r="O33" s="8">
         <f t="shared" si="16"/>
-        <v>2.3370227895334036E-7</v>
+        <v>6.7029716235385405E-3</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2007,21 +4071,21 @@
       <c r="K34" s="3">
         <v>4</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="8">
         <f t="shared" si="13"/>
-        <v>2.5800885293146823E-9</v>
-      </c>
-      <c r="M34" s="8">
+        <v>7.8151163023686444E-3</v>
+      </c>
+      <c r="M34" s="6">
         <f t="shared" si="14"/>
-        <v>84.349359711678559</v>
-      </c>
-      <c r="N34" s="11">
+        <v>0.84349359711678551</v>
+      </c>
+      <c r="N34" s="8">
         <f t="shared" si="15"/>
-        <v>6.6568568191012004E-18</v>
-      </c>
-      <c r="O34" s="11">
+        <v>6.1076042819548155E-5</v>
+      </c>
+      <c r="O34" s="8">
         <f t="shared" si="16"/>
-        <v>2.1762881544713984E-7</v>
+        <v>6.5920005617709602E-3</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2044,21 +4108,21 @@
       <c r="K35" s="3">
         <v>5</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="8">
         <f t="shared" si="13"/>
-        <v>2.4122691949643128E-9</v>
-      </c>
-      <c r="M35" s="8">
+        <v>7.6418615719702739E-3</v>
+      </c>
+      <c r="M35" s="6">
         <f t="shared" si="14"/>
-        <v>81.116322834853264</v>
-      </c>
-      <c r="N35" s="11">
+        <v>0.81116322834853261</v>
+      </c>
+      <c r="N35" s="8">
         <f t="shared" si="15"/>
-        <v>5.8190426689737737E-18</v>
-      </c>
-      <c r="O35" s="11">
+        <v>5.8398048285155983E-5</v>
+      </c>
+      <c r="O35" s="8">
         <f t="shared" si="16"/>
-        <v>1.9567440678329679E-7</v>
+        <v>6.1987971033119994E-3</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2081,21 +4145,21 @@
       <c r="K36" s="3">
         <v>6</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="8">
         <f t="shared" si="13"/>
-        <v>1.9552369929062809E-9</v>
-      </c>
-      <c r="M36" s="8">
+        <v>7.125090385229761E-3</v>
+      </c>
+      <c r="M36" s="6">
         <f t="shared" si="14"/>
-        <v>73.131490419774764</v>
-      </c>
-      <c r="N36" s="11">
+        <v>0.73131490419774747</v>
+      </c>
+      <c r="N36" s="8">
         <f t="shared" si="15"/>
-        <v>3.8229516984291956E-18</v>
-      </c>
-      <c r="O36" s="11">
+        <v>5.0766912997693582E-5</v>
+      </c>
+      <c r="O36" s="8">
         <f t="shared" si="16"/>
-        <v>1.429893954151149E-7</v>
+        <v>5.2106847924745939E-3</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2118,21 +4182,21 @@
       <c r="K37" s="3">
         <v>7</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="8">
         <f t="shared" si="13"/>
-        <v>1.4326211126730227E-9</v>
-      </c>
-      <c r="M37" s="8">
+        <v>6.4234402960102431E-3</v>
+      </c>
+      <c r="M37" s="6">
         <f t="shared" si="14"/>
-        <v>67.984431565171576</v>
-      </c>
-      <c r="N37" s="11">
+        <v>0.67984431565171566</v>
+      </c>
+      <c r="N37" s="8">
         <f t="shared" si="15"/>
-        <v>2.0524032524764897E-18</v>
-      </c>
-      <c r="O37" s="11">
+        <v>4.1260585236408158E-5</v>
+      </c>
+      <c r="O37" s="8">
         <f t="shared" si="16"/>
-        <v>9.7395931993339064E-8</v>
+        <v>4.3669393721707372E-3</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2155,21 +4219,21 @@
       <c r="K38" s="3">
         <v>8</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="8">
         <f t="shared" si="13"/>
-        <v>1.2593259888754392E-9</v>
-      </c>
-      <c r="M38" s="8">
+        <v>6.1532321164109163E-3</v>
+      </c>
+      <c r="M38" s="6">
         <f t="shared" si="14"/>
-        <v>60.521697028384679</v>
-      </c>
-      <c r="N38" s="11">
+        <v>0.60521697028384669</v>
+      </c>
+      <c r="N38" s="8">
         <f t="shared" si="15"/>
-        <v>1.5859019462571028E-18</v>
-      </c>
-      <c r="O38" s="11">
+        <v>3.7862265478430767E-5</v>
+      </c>
+      <c r="O38" s="8">
         <f t="shared" si="16"/>
-        <v>7.6216545958690264E-8</v>
+        <v>3.7240404989474767E-3</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2192,21 +4256,21 @@
       <c r="K39" s="3">
         <v>9</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="8">
         <f t="shared" si="13"/>
-        <v>1.0317006251519999E-9</v>
-      </c>
-      <c r="M39" s="8">
+        <v>5.757604211708108E-3</v>
+      </c>
+      <c r="M39" s="6">
         <f t="shared" si="14"/>
-        <v>59.336396574806514</v>
-      </c>
-      <c r="N39" s="11">
+        <v>0.59336396574806516</v>
+      </c>
+      <c r="N39" s="8">
         <f t="shared" si="15"/>
-        <v>1.0644061799390273E-18</v>
-      </c>
-      <c r="O39" s="11">
+        <v>3.3150006258678945E-5</v>
+      </c>
+      <c r="O39" s="8">
         <f t="shared" si="16"/>
-        <v>6.1217397440494861E-8</v>
+        <v>3.4163548682668854E-3</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -2229,21 +4293,21 @@
       <c r="K40" s="3">
         <v>10</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="8">
         <f t="shared" si="13"/>
-        <v>8.1101713418721059E-10</v>
-      </c>
-      <c r="M40" s="8">
+        <v>5.3137434909265903E-3</v>
+      </c>
+      <c r="M40" s="6">
         <f t="shared" si="14"/>
-        <v>54.810287891037149</v>
-      </c>
-      <c r="N40" s="11">
+        <v>0.54810287891037146</v>
+      </c>
+      <c r="N40" s="8">
         <f>L40^2</f>
-        <v>6.5774879194523594E-19</v>
-      </c>
-      <c r="O40" s="11">
+        <v>2.8235869887364706E-5</v>
+      </c>
+      <c r="O40" s="8">
         <f t="shared" si="16"/>
-        <v>4.4452082609364918E-8</v>
+        <v>2.9124781051681117E-3</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2268,11 +4332,11 @@
       <c r="M41" s="1"/>
       <c r="N41" s="2">
         <f>SUM(N31:N40)</f>
-        <v>4.7691164889214246E-17</v>
+        <v>5.1077828143084546E-4</v>
       </c>
       <c r="O41" s="2">
         <f>SUM(O31:O40)</f>
-        <v>1.6174557754723227E-6</v>
+        <v>5.4089611474038735E-2</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -2283,10 +4347,82 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="8">
+        <f>AVERAGE(L18:L27)</f>
+        <v>1.2883845052288092E-2</v>
+      </c>
+      <c r="K44" s="8">
+        <f>AVERAGE(M18:M27)</f>
+        <v>0.74651593354033785</v>
+      </c>
+      <c r="L44" s="8">
+        <f>((O28/10)-(J44*K44))/((N28/10)-(J44^2))</f>
+        <v>88.341472345397833</v>
+      </c>
+      <c r="M44" s="8">
+        <f>K44-L44*J44</f>
+        <v>-0.39166190784876143</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="8">
+        <f>AVERAGE(L31:L40)</f>
+        <v>7.072480583407835E-3</v>
+      </c>
+      <c r="K45" s="8">
+        <f>AVERAGE(M31:M40)</f>
+        <v>0.74651593354033785</v>
+      </c>
+      <c r="L45" s="8">
+        <f>((O41/10)-(J45*K45))/((N41/10)-(J45^2))</f>
+        <v>122.17433937623541</v>
+      </c>
+      <c r="M45" s="8">
+        <f>K45-L45*J45</f>
+        <v>-0.11755970948876637</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab8/lab8-yo.xlsx
+++ b/lab8/lab8-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CDECB-5613-46A1-8270-617EE3358F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1828FBF-F193-4ADE-87C2-D0788EF8F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2284,16 +2284,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/lab8/lab8-yo.xlsx
+++ b/lab8/lab8-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1828FBF-F193-4ADE-87C2-D0788EF8F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E1068-8F34-44F3-A635-5DDDB7110C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
   <numFmts count="3">
     <numFmt numFmtId="187" formatCode="0.000"/>
     <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="191" formatCode="0.0000"/>
+    <numFmt numFmtId="189" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -210,9 +210,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,7 +219,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -631,7 +631,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1002,7 +1002,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1081,7 +1081,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09815-60D7-F244-973D-B8EA8DA4B9D3}">
   <dimension ref="C1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2801,15 +2801,15 @@
       <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f>D11/E11</f>
         <v>8.5567598402738147E-3</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f>F11</f>
         <v>63</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>M4*(10^-3)*E$1*(10^-3)</f>
         <v>9.4500000000000001E-3</v>
       </c>
@@ -2817,19 +2817,19 @@
         <f>(2*M4+E$1)/1000</f>
         <v>0.27600000000000002</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f>L4/(N4)</f>
         <v>0.90547723177500683</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <f>(N4)/O4</f>
         <v>3.4239130434782605E-2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <f>SQRT(Q4*H$8*10^-3)</f>
         <v>1.4530702128521734E-2</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <f>(Q4^(2/3))*((H$8*10^-3)^0.5)</f>
         <v>8.2801916289704219E-3</v>
       </c>
@@ -2861,15 +2861,15 @@
       <c r="K5" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" ref="L5:L13" si="0">D12/E12</f>
         <v>8.3500334001335996E-3</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f t="shared" ref="M5:M13" si="1">F12</f>
         <v>61</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" ref="N5:N13" si="2">M5*(10^-3)*E$1*(10^-3)</f>
         <v>9.1500000000000001E-3</v>
       </c>
@@ -2877,19 +2877,19 @@
         <f t="shared" ref="O5:O13" si="3">(2*M5+E$1)/1000</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <f t="shared" ref="P5:P13" si="4">L5/(N5)</f>
         <v>0.91257195629875409</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <f t="shared" ref="Q5:Q13" si="5">(N5)/O5</f>
         <v>3.363970588235294E-2</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f t="shared" ref="R5:R13" si="6">SQRT(Q5*H$8*10^-3)</f>
         <v>1.4402945981332309E-2</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f t="shared" ref="S5:S13" si="7">(Q5^(2/3))*((H$8*10^-3)^0.5)</f>
         <v>8.1832665381379698E-3</v>
       </c>
@@ -2921,15 +2921,15 @@
       <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="0"/>
         <v>7.2611094975312228E-3</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" si="2"/>
         <v>8.7000000000000011E-3</v>
       </c>
@@ -2937,19 +2937,19 @@
         <f t="shared" si="3"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="4"/>
         <v>0.83461028707255425</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <f t="shared" si="5"/>
         <v>3.2706766917293233E-2</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <f t="shared" si="6"/>
         <v>1.420182133824068E-2</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <f t="shared" si="7"/>
         <v>8.0312592923454332E-3</v>
       </c>
@@ -2981,15 +2981,15 @@
       <c r="K7" s="3">
         <v>4</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>6.8322981366459624E-3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="2"/>
         <v>8.0999999999999996E-3</v>
       </c>
@@ -2997,19 +2997,19 @@
         <f t="shared" si="3"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f t="shared" si="4"/>
         <v>0.84349359711678551</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <f t="shared" si="5"/>
         <v>3.1395348837209298E-2</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <f t="shared" si="6"/>
         <v>1.3914188843148229E-2</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <f t="shared" si="7"/>
         <v>7.8151163023686444E-3</v>
       </c>
@@ -3020,12 +3020,12 @@
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="4">
         <f>AVERAGE(H5:H7)</f>
         <v>6.166666666666667</v>
@@ -3035,15 +3035,15 @@
       <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f t="shared" si="0"/>
         <v>6.2053986968662747E-3</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" si="2"/>
         <v>7.6500000000000005E-3</v>
       </c>
@@ -3051,19 +3051,19 @@
         <f t="shared" si="3"/>
         <v>0.252</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="4"/>
         <v>0.81116322834853261</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <f t="shared" si="5"/>
         <v>3.035714285714286E-2</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <f t="shared" si="6"/>
         <v>1.3682192110637132E-2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <f t="shared" si="7"/>
         <v>7.6418615719702739E-3</v>
       </c>
@@ -3084,15 +3084,15 @@
       <c r="K9" s="3">
         <v>6</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f t="shared" si="0"/>
         <v>4.7169811320754715E-3</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="2"/>
         <v>6.45E-3</v>
       </c>
@@ -3100,19 +3100,19 @@
         <f t="shared" si="3"/>
         <v>0.23599999999999999</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f t="shared" si="4"/>
         <v>0.73131490419774747</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <f t="shared" si="5"/>
         <v>2.7330508474576274E-2</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <f t="shared" si="6"/>
         <v>1.2982223830808817E-2</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <f t="shared" si="7"/>
         <v>7.125090385229761E-3</v>
       </c>
@@ -3141,15 +3141,15 @@
       <c r="K10" s="3">
         <v>7</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="0"/>
         <v>3.4672060098237503E-3</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" si="2"/>
         <v>5.1000000000000004E-3</v>
       </c>
@@ -3157,19 +3157,19 @@
         <f t="shared" si="3"/>
         <v>0.218</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="4"/>
         <v>0.67984431565171566</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <f t="shared" si="5"/>
         <v>2.3394495412844038E-2</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <f t="shared" si="6"/>
         <v>1.2011080511172655E-2</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <f t="shared" si="7"/>
         <v>6.4234402960102431E-3</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.3</v>
       </c>
       <c r="E11" s="3">
@@ -3198,15 +3198,15 @@
       <c r="K11" s="3">
         <v>8</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" si="0"/>
         <v>2.8142589118198874E-3</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" si="2"/>
         <v>4.6500000000000005E-3</v>
       </c>
@@ -3214,19 +3214,19 @@
         <f t="shared" si="3"/>
         <v>0.21199999999999999</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <f t="shared" si="4"/>
         <v>0.60521697028384669</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <f t="shared" si="5"/>
         <v>2.1933962264150945E-2</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <f t="shared" si="6"/>
         <v>1.163010894025779E-2</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f t="shared" si="7"/>
         <v>6.1532321164109163E-3</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.25</v>
       </c>
       <c r="E12" s="3">
@@ -3255,15 +3255,15 @@
       <c r="K12" s="3">
         <v>9</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" si="0"/>
         <v>2.4031240612796636E-3</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
         <v>4.0499999999999998E-3</v>
       </c>
@@ -3271,19 +3271,19 @@
         <f t="shared" si="3"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <f t="shared" si="4"/>
         <v>0.59336396574806516</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <f t="shared" si="5"/>
         <v>1.9852941176470587E-2</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <f t="shared" si="6"/>
         <v>1.1064649591750988E-2</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <f t="shared" si="7"/>
         <v>5.757604211708108E-3</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.25</v>
       </c>
       <c r="E13" s="3">
@@ -3312,15 +3312,15 @@
       <c r="K13" s="3">
         <v>10</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" si="0"/>
         <v>1.8909549322407816E-3</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" si="2"/>
         <v>3.4499999999999999E-3</v>
       </c>
@@ -3328,19 +3328,19 @@
         <f t="shared" si="3"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <f t="shared" si="4"/>
         <v>0.54810287891037146</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="8">
         <f t="shared" si="5"/>
         <v>1.760204081632653E-2</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <f t="shared" si="6"/>
         <v>1.0418537247010588E-2</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <f t="shared" si="7"/>
         <v>5.3137434909265903E-3</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="C14" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0.22</v>
       </c>
       <c r="E14" s="3">
@@ -3384,7 +3384,7 @@
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.2</v>
       </c>
       <c r="E15" s="3">
@@ -3415,7 +3415,7 @@
       <c r="C16" s="3">
         <v>6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.16</v>
       </c>
       <c r="E16" s="3">
@@ -3446,7 +3446,7 @@
       <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0.12</v>
       </c>
       <c r="E17" s="3">
@@ -3482,7 +3482,7 @@
       <c r="C18" s="3">
         <v>8</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>0.09</v>
       </c>
       <c r="E18" s="3">
@@ -3498,19 +3498,19 @@
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f>R4</f>
         <v>1.4530702128521734E-2</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <f>P4</f>
         <v>0.90547723177500683</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f>L18^2</f>
         <v>2.1114130434782605E-4</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f>L18*M18</f>
         <v>1.3157219939081059E-2</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>0.08</v>
       </c>
       <c r="E19" s="3">
@@ -3539,19 +3539,19 @@
       <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f t="shared" ref="L19:L27" si="9">R5</f>
         <v>1.4402945981332309E-2</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <f t="shared" ref="M19:M27" si="10">P5</f>
         <v>0.91257195629875409</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f t="shared" ref="N19:N27" si="11">L19^2</f>
         <v>2.0744485294117652E-4</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <f t="shared" ref="O19:O27" si="12">L19*M19</f>
         <v>1.3143724590649703E-2</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="C20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0.06</v>
       </c>
       <c r="E20" s="3">
@@ -3577,19 +3577,19 @@
       <c r="K20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <f t="shared" si="9"/>
         <v>1.420182133824068E-2</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <f t="shared" si="10"/>
         <v>0.83461028707255425</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <f t="shared" si="11"/>
         <v>2.0169172932330831E-4</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <f t="shared" si="12"/>
         <v>1.185298618406218E-2</v>
       </c>
@@ -3614,19 +3614,19 @@
       <c r="K21" s="3">
         <v>4</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <f t="shared" si="9"/>
         <v>1.3914188843148229E-2</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <f t="shared" si="10"/>
         <v>0.84349359711678551</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <f t="shared" si="11"/>
         <v>1.9360465116279065E-4</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <f t="shared" si="12"/>
         <v>1.1736529198269344E-2</v>
       </c>
@@ -3651,19 +3651,19 @@
       <c r="K22" s="3">
         <v>5</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <f t="shared" si="9"/>
         <v>1.3682192110637132E-2</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <f t="shared" si="10"/>
         <v>0.81116322834853261</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <f t="shared" si="11"/>
         <v>1.87202380952381E-4</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <f t="shared" si="12"/>
         <v>1.1098491123349239E-2</v>
       </c>
@@ -3688,19 +3688,19 @@
       <c r="K23" s="3">
         <v>6</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <f t="shared" si="9"/>
         <v>1.2982223830808817E-2</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <f t="shared" si="10"/>
         <v>0.73131490419774747</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <f t="shared" si="11"/>
         <v>1.6853813559322036E-4</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <f t="shared" si="12"/>
         <v>9.4940937771016646E-3</v>
       </c>
@@ -3725,19 +3725,19 @@
       <c r="K24" s="3">
         <v>7</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <f t="shared" si="9"/>
         <v>1.2011080511172655E-2</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <f t="shared" si="10"/>
         <v>0.67984431565171566</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f t="shared" si="11"/>
         <v>1.4426605504587158E-4</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <f t="shared" si="12"/>
         <v>8.1656648103558323E-3</v>
       </c>
@@ -3762,19 +3762,19 @@
       <c r="K25" s="3">
         <v>8</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <f t="shared" si="9"/>
         <v>1.163010894025779E-2</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <f t="shared" si="10"/>
         <v>0.60521697028384669</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <f t="shared" si="11"/>
         <v>1.3525943396226417E-4</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <f>L25*M25</f>
         <v>7.0387392968938988E-3</v>
       </c>
@@ -3799,19 +3799,19 @@
       <c r="K26" s="3">
         <v>9</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <f t="shared" si="9"/>
         <v>1.1064649591750988E-2</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <f t="shared" si="10"/>
         <v>0.59336396574806516</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <f t="shared" si="11"/>
         <v>1.2242647058823531E-4</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <f t="shared" si="12"/>
         <v>6.5653643613740762E-3</v>
       </c>
@@ -3836,19 +3836,19 @@
       <c r="K27" s="3">
         <v>10</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <f t="shared" si="9"/>
         <v>1.0418537247010588E-2</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <f t="shared" si="10"/>
         <v>0.54810287891037146</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <f t="shared" si="11"/>
         <v>1.0854591836734696E-4</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <f t="shared" si="12"/>
         <v>5.7104302591214386E-3</v>
       </c>
@@ -3960,19 +3960,19 @@
       <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <f>S4</f>
         <v>8.2801916289704219E-3</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <f>P4</f>
         <v>0.90547723177500683</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <f>L31^2</f>
         <v>6.8561573412471852E-5</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="7">
         <f>L31*M31</f>
         <v>7.4975249947667223E-3</v>
       </c>
@@ -3997,19 +3997,19 @@
       <c r="K32" s="3">
         <v>2</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <f t="shared" ref="L32:L40" si="13">S5</f>
         <v>8.1832665381379698E-3</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <f t="shared" ref="M32:M40" si="14">P5</f>
         <v>0.91257195629875409</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <f t="shared" ref="N32:N39" si="15">L32^2</f>
         <v>6.6965851234208589E-5</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <f t="shared" ref="O32:O40" si="16">L32*M32</f>
         <v>7.4678195536227003E-3</v>
       </c>
@@ -4034,19 +4034,19 @@
       <c r="K33" s="3">
         <v>3</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <f t="shared" si="13"/>
         <v>8.0312592923454332E-3</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <f t="shared" si="14"/>
         <v>0.83461028707255425</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <f t="shared" si="15"/>
         <v>6.4501125820884864E-5</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="7">
         <f t="shared" si="16"/>
         <v>6.7029716235385405E-3</v>
       </c>
@@ -4071,19 +4071,19 @@
       <c r="K34" s="3">
         <v>4</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="7">
         <f t="shared" si="13"/>
         <v>7.8151163023686444E-3</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="5">
         <f t="shared" si="14"/>
         <v>0.84349359711678551</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <f t="shared" si="15"/>
         <v>6.1076042819548155E-5</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <f t="shared" si="16"/>
         <v>6.5920005617709602E-3</v>
       </c>
@@ -4108,19 +4108,19 @@
       <c r="K35" s="3">
         <v>5</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <f t="shared" si="13"/>
         <v>7.6418615719702739E-3</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <f t="shared" si="14"/>
         <v>0.81116322834853261</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <f t="shared" si="15"/>
         <v>5.8398048285155983E-5</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="7">
         <f t="shared" si="16"/>
         <v>6.1987971033119994E-3</v>
       </c>
@@ -4145,19 +4145,19 @@
       <c r="K36" s="3">
         <v>6</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <f t="shared" si="13"/>
         <v>7.125090385229761E-3</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
         <f t="shared" si="14"/>
         <v>0.73131490419774747</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <f t="shared" si="15"/>
         <v>5.0766912997693582E-5</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="7">
         <f t="shared" si="16"/>
         <v>5.2106847924745939E-3</v>
       </c>
@@ -4182,19 +4182,19 @@
       <c r="K37" s="3">
         <v>7</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="7">
         <f t="shared" si="13"/>
         <v>6.4234402960102431E-3</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <f t="shared" si="14"/>
         <v>0.67984431565171566</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <f t="shared" si="15"/>
         <v>4.1260585236408158E-5</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <f t="shared" si="16"/>
         <v>4.3669393721707372E-3</v>
       </c>
@@ -4219,19 +4219,19 @@
       <c r="K38" s="3">
         <v>8</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <f t="shared" si="13"/>
         <v>6.1532321164109163E-3</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <f t="shared" si="14"/>
         <v>0.60521697028384669</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <f t="shared" si="15"/>
         <v>3.7862265478430767E-5</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="7">
         <f t="shared" si="16"/>
         <v>3.7240404989474767E-3</v>
       </c>
@@ -4256,19 +4256,19 @@
       <c r="K39" s="3">
         <v>9</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <f t="shared" si="13"/>
         <v>5.757604211708108E-3</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <f t="shared" si="14"/>
         <v>0.59336396574806516</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <f t="shared" si="15"/>
         <v>3.3150006258678945E-5</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="7">
         <f t="shared" si="16"/>
         <v>3.4163548682668854E-3</v>
       </c>
@@ -4293,19 +4293,19 @@
       <c r="K40" s="3">
         <v>10</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="7">
         <f t="shared" si="13"/>
         <v>5.3137434909265903E-3</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="5">
         <f t="shared" si="14"/>
         <v>0.54810287891037146</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <f>L40^2</f>
         <v>2.8235869887364706E-5</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="7">
         <f t="shared" si="16"/>
         <v>2.9124781051681117E-3</v>
       </c>
@@ -4372,19 +4372,19 @@
       <c r="I44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <f>AVERAGE(L18:L27)</f>
         <v>1.2883845052288092E-2</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <f>AVERAGE(M18:M27)</f>
         <v>0.74651593354033785</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <f>((O28/10)-(J44*K44))/((N28/10)-(J44^2))</f>
         <v>88.341472345397833</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <f>K44-L44*J44</f>
         <v>-0.39166190784876143</v>
       </c>
@@ -4397,19 +4397,19 @@
       <c r="I45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="7">
         <f>AVERAGE(L31:L40)</f>
         <v>7.072480583407835E-3</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <f>AVERAGE(M31:M40)</f>
         <v>0.74651593354033785</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="7">
         <f>((O41/10)-(J45*K45))/((N41/10)-(J45^2))</f>
         <v>122.17433937623541</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="7">
         <f>K45-L45*J45</f>
         <v>-0.11755970948876637</v>
       </c>

--- a/lab8/lab8-yo.xlsx
+++ b/lab8/lab8-yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E1068-8F34-44F3-A635-5DDDB7110C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F17508-71DD-4E7C-A0DA-DCF77FEFA5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>So 10^-3</t>
   </si>
@@ -142,15 +142,19 @@
   <si>
     <t>v = 122(R2/3So1/2) - 0.118</t>
   </si>
+  <si>
+    <t>รวม</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="187" formatCode="0.000"/>
     <numFmt numFmtId="188" formatCode="0.0"/>
     <numFmt numFmtId="189" formatCode="0.0000"/>
+    <numFmt numFmtId="191" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -196,12 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -223,6 +224,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2656,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09815-60D7-F244-973D-B8EA8DA4B9D3}">
-  <dimension ref="C1:X45"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2669,8 +2677,9 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.8984375" customWidth="1"/>
     <col min="11" max="11" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.3984375" customWidth="1"/>
     <col min="21" max="21" width="9.296875" bestFit="1" customWidth="1"/>
@@ -2678,13 +2687,13 @@
   <sheetData>
     <row r="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>150</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="1"/>
@@ -2730,48 +2739,48 @@
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="T3" s="1"/>
@@ -2781,55 +2790,55 @@
     </row>
     <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>163</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <f>D11/E11</f>
         <v>8.5567598402738147E-3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>F11</f>
         <v>63</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f>M4*(10^-3)*E$1*(10^-3)</f>
         <v>9.4500000000000001E-3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f>(2*M4+E$1)/1000</f>
         <v>0.27600000000000002</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>L4/(N4)</f>
         <v>0.90547723177500683</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <f>(N4)/O4</f>
         <v>3.4239130434782605E-2</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <f>SQRT(Q4*H$8*10^-3)</f>
         <v>1.4530702128521734E-2</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <f>(Q4^(2/3))*((H$8*10^-3)^0.5)</f>
         <v>8.2801916289704219E-3</v>
       </c>
@@ -2840,56 +2849,56 @@
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>175</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>(G5-G4)/F5</f>
         <v>6</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="9">
         <f t="shared" ref="L5:L13" si="0">D12/E12</f>
         <v>8.3500334001335996E-3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <f t="shared" ref="M5:M13" si="1">F12</f>
         <v>61</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f t="shared" ref="N5:N13" si="2">M5*(10^-3)*E$1*(10^-3)</f>
         <v>9.1500000000000001E-3</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f t="shared" ref="O5:O13" si="3">(2*M5+E$1)/1000</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <f t="shared" ref="P5:P13" si="4">L5/(N5)</f>
         <v>0.91257195629875409</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" ref="Q5:Q13" si="5">(N5)/O5</f>
         <v>3.363970588235294E-2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" ref="R5:R13" si="6">SQRT(Q5*H$8*10^-3)</f>
         <v>1.4402945981332309E-2</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <f t="shared" ref="S5:S13" si="7">(Q5^(2/3))*((H$8*10^-3)^0.5)</f>
         <v>8.1832665381379698E-3</v>
       </c>
@@ -2900,56 +2909,56 @@
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>185</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" ref="H6:H7" si="8">(G6-G5)/F6</f>
         <v>5</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="9">
         <f t="shared" si="0"/>
         <v>7.2611094975312228E-3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" si="2"/>
         <v>8.7000000000000011E-3</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <f t="shared" si="3"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <f t="shared" si="4"/>
         <v>0.83461028707255425</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f t="shared" si="5"/>
         <v>3.2706766917293233E-2</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <f t="shared" si="6"/>
         <v>1.420182133824068E-2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <f t="shared" si="7"/>
         <v>8.0312592923454332E-3</v>
       </c>
@@ -2960,56 +2969,56 @@
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>200</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
         <v>6.8322981366459624E-3</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="2"/>
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <f t="shared" si="3"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <f t="shared" si="4"/>
         <v>0.84349359711678551</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" si="5"/>
         <v>3.1395348837209298E-2</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f t="shared" si="6"/>
         <v>1.3914188843148229E-2</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <f t="shared" si="7"/>
         <v>7.8151163023686444E-3</v>
       </c>
@@ -3020,50 +3029,50 @@
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3">
         <f>AVERAGE(H5:H7)</f>
         <v>6.166666666666667</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="9">
         <f t="shared" si="0"/>
         <v>6.2053986968662747E-3</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f t="shared" si="2"/>
         <v>7.6500000000000005E-3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <f t="shared" si="3"/>
         <v>0.252</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <f t="shared" si="4"/>
         <v>0.81116322834853261</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" si="5"/>
         <v>3.035714285714286E-2</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f t="shared" si="6"/>
         <v>1.3682192110637132E-2</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <f t="shared" si="7"/>
         <v>7.6418615719702739E-3</v>
       </c>
@@ -3081,38 +3090,38 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>4.7169811320754715E-3</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="2"/>
         <v>6.45E-3</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <f t="shared" si="3"/>
         <v>0.23599999999999999</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <f t="shared" si="4"/>
         <v>0.73131490419774747</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f t="shared" si="5"/>
         <v>2.7330508474576274E-2</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <f t="shared" si="6"/>
         <v>1.2982223830808817E-2</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <f t="shared" si="7"/>
         <v>7.125090385229761E-3</v>
       </c>
@@ -3122,54 +3131,54 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>7</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="9">
         <f t="shared" si="0"/>
         <v>3.4672060098237503E-3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f t="shared" si="2"/>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <f t="shared" si="3"/>
         <v>0.218</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <f t="shared" si="4"/>
         <v>0.67984431565171566</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="5"/>
         <v>2.3394495412844038E-2</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <f t="shared" si="6"/>
         <v>1.2011080511172655E-2</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <f t="shared" si="7"/>
         <v>6.4234402960102431E-3</v>
       </c>
@@ -3179,54 +3188,54 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>35.06</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>63</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>8</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="9">
         <f t="shared" si="0"/>
         <v>2.8142589118198874E-3</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f t="shared" si="2"/>
         <v>4.6500000000000005E-3</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <f t="shared" si="3"/>
         <v>0.21199999999999999</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <f t="shared" si="4"/>
         <v>0.60521697028384669</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f t="shared" si="5"/>
         <v>2.1933962264150945E-2</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f t="shared" si="6"/>
         <v>1.163010894025779E-2</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <f t="shared" si="7"/>
         <v>6.1532321164109163E-3</v>
       </c>
@@ -3236,54 +3245,54 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.25</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>29.94</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>61</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>9</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <f t="shared" si="0"/>
         <v>2.4031240612796636E-3</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f t="shared" si="2"/>
         <v>4.0499999999999998E-3</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <f t="shared" si="3"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="4"/>
         <v>0.59336396574806516</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f t="shared" si="5"/>
         <v>1.9852941176470587E-2</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <f t="shared" si="6"/>
         <v>1.1064649591750988E-2</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <f t="shared" si="7"/>
         <v>5.757604211708108E-3</v>
       </c>
@@ -3293,54 +3302,54 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.25</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>34.43</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>58</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="9">
         <f t="shared" si="0"/>
         <v>1.8909549322407816E-3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f t="shared" si="2"/>
         <v>3.4499999999999999E-3</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <f t="shared" si="3"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <f t="shared" si="4"/>
         <v>0.54810287891037146</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <f t="shared" si="5"/>
         <v>1.760204081632653E-2</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <f t="shared" si="6"/>
         <v>1.0418537247010588E-2</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <f t="shared" si="7"/>
         <v>5.3137434909265903E-3</v>
       </c>
@@ -3350,16 +3359,16 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.22</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>54</v>
       </c>
       <c r="G14" s="1"/>
@@ -3381,16 +3390,16 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>32.229999999999997</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>51</v>
       </c>
       <c r="G15" s="1"/>
@@ -3412,16 +3421,16 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.16</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>33.92</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>43</v>
       </c>
       <c r="G16" s="1"/>
@@ -3442,75 +3451,75 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
         <v>7</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.12</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>34.61</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>34</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.09</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>31.98</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>31</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f>R4</f>
         <v>1.4530702128521734E-2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f>P4</f>
         <v>0.90547723177500683</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f>L18^2</f>
         <v>2.1114130434782605E-4</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <f>L18*M18</f>
         <v>1.3157219939081059E-2</v>
       </c>
@@ -3519,77 +3528,77 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.08</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>33.29</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>27</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>2</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" ref="L19:L27" si="9">R5</f>
         <v>1.4402945981332309E-2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f t="shared" ref="M19:M27" si="10">P5</f>
         <v>0.91257195629875409</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <f t="shared" ref="N19:N27" si="11">L19^2</f>
         <v>2.0744485294117652E-4</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <f t="shared" ref="O19:O27" si="12">L19*M19</f>
         <v>1.3143724590649703E-2</v>
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.06</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>31.73</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>23</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>3</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="9"/>
         <v>1.420182133824068E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <f t="shared" si="10"/>
         <v>0.83461028707255425</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f t="shared" si="11"/>
         <v>2.0169172932330831E-4</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <f t="shared" si="12"/>
         <v>1.185298618406218E-2</v>
       </c>
@@ -3602,7 +3611,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3611,22 +3620,22 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="9"/>
         <v>1.3914188843148229E-2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f t="shared" si="10"/>
         <v>0.84349359711678551</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <f t="shared" si="11"/>
         <v>1.9360465116279065E-4</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <f t="shared" si="12"/>
         <v>1.1736529198269344E-2</v>
       </c>
@@ -3639,7 +3648,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3648,22 +3657,22 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>5</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="9"/>
         <v>1.3682192110637132E-2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f t="shared" si="10"/>
         <v>0.81116322834853261</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="11"/>
         <v>1.87202380952381E-4</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <f t="shared" si="12"/>
         <v>1.1098491123349239E-2</v>
       </c>
@@ -3676,7 +3685,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3685,22 +3694,22 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>6</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="9"/>
         <v>1.2982223830808817E-2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <f t="shared" si="10"/>
         <v>0.73131490419774747</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <f t="shared" si="11"/>
         <v>1.6853813559322036E-4</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <f t="shared" si="12"/>
         <v>9.4940937771016646E-3</v>
       </c>
@@ -3713,7 +3722,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3722,22 +3731,22 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>7</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="9"/>
         <v>1.2011080511172655E-2</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <f t="shared" si="10"/>
         <v>0.67984431565171566</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f t="shared" si="11"/>
         <v>1.4426605504587158E-4</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <f t="shared" si="12"/>
         <v>8.1656648103558323E-3</v>
       </c>
@@ -3750,7 +3759,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3759,22 +3768,22 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>8</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="9"/>
         <v>1.163010894025779E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <f t="shared" si="10"/>
         <v>0.60521697028384669</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <f t="shared" si="11"/>
         <v>1.3525943396226417E-4</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <f>L25*M25</f>
         <v>7.0387392968938988E-3</v>
       </c>
@@ -3787,7 +3796,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="3:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3796,22 +3805,22 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>9</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="9"/>
         <v>1.1064649591750988E-2</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <f t="shared" si="10"/>
         <v>0.59336396574806516</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <f t="shared" si="11"/>
         <v>1.2242647058823531E-4</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <f t="shared" si="12"/>
         <v>6.5653643613740762E-3</v>
       </c>
@@ -3824,7 +3833,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3833,22 +3842,22 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>10</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="9"/>
         <v>1.0418537247010588E-2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <f t="shared" si="10"/>
         <v>0.54810287891037146</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <f t="shared" si="11"/>
         <v>1.0854591836734696E-4</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <f t="shared" si="12"/>
         <v>5.7104302591214386E-3</v>
       </c>
@@ -3861,7 +3870,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3870,14 +3879,22 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2">
+      <c r="K28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="9">
+        <f>SUM(L18:L27)</f>
+        <v>0.12883845052288093</v>
+      </c>
+      <c r="M28" s="9">
+        <f>SUM(M18:M27)</f>
+        <v>7.4651593354033787</v>
+      </c>
+      <c r="N28" s="9">
         <f>SUM(N18:N27)</f>
         <v>1.6801209322844211E-3</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="9">
         <f>SUM(O18:O27)</f>
         <v>9.7963243540258427E-2</v>
       </c>
@@ -3890,7 +3907,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3913,7 +3930,10 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>6.8561573412471852E-5</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3921,22 +3941,22 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P30" s="1"/>
@@ -3948,7 +3968,10 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>6.6965851234208589E-5</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3957,22 +3980,22 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>1</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f>S4</f>
         <v>8.2801916289704219E-3</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <f>P4</f>
         <v>0.90547723177500683</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <f>L31^2</f>
         <v>6.8561573412471852E-5</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <f>L31*M31</f>
         <v>7.4975249947667223E-3</v>
       </c>
@@ -3985,7 +4008,10 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>6.4501125820884864E-5</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3994,22 +4020,22 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>2</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" ref="L32:L40" si="13">S5</f>
         <v>8.1832665381379698E-3</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <f t="shared" ref="M32:M40" si="14">P5</f>
         <v>0.91257195629875409</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <f t="shared" ref="N32:N39" si="15">L32^2</f>
         <v>6.6965851234208589E-5</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <f t="shared" ref="O32:O40" si="16">L32*M32</f>
         <v>7.4678195536227003E-3</v>
       </c>
@@ -4022,7 +4048,10 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>6.1076042819548155E-5</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4031,22 +4060,22 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>3</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="13"/>
         <v>8.0312592923454332E-3</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <f t="shared" si="14"/>
         <v>0.83461028707255425</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <f t="shared" si="15"/>
         <v>6.4501125820884864E-5</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <f t="shared" si="16"/>
         <v>6.7029716235385405E-3</v>
       </c>
@@ -4059,7 +4088,10 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>5.8398048285155983E-5</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4068,22 +4100,22 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>4</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <f t="shared" si="13"/>
         <v>7.8151163023686444E-3</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <f t="shared" si="14"/>
         <v>0.84349359711678551</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <f t="shared" si="15"/>
         <v>6.1076042819548155E-5</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <f t="shared" si="16"/>
         <v>6.5920005617709602E-3</v>
       </c>
@@ -4096,7 +4128,10 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>5.0766912997693582E-5</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4105,22 +4140,22 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>5</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="13"/>
         <v>7.6418615719702739E-3</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <f t="shared" si="14"/>
         <v>0.81116322834853261</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <f t="shared" si="15"/>
         <v>5.8398048285155983E-5</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <f t="shared" si="16"/>
         <v>6.1987971033119994E-3</v>
       </c>
@@ -4133,7 +4168,10 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>4.1260585236408158E-5</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4142,22 +4180,22 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>6</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <f t="shared" si="13"/>
         <v>7.125090385229761E-3</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <f t="shared" si="14"/>
         <v>0.73131490419774747</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <f t="shared" si="15"/>
         <v>5.0766912997693582E-5</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <f t="shared" si="16"/>
         <v>5.2106847924745939E-3</v>
       </c>
@@ -4170,7 +4208,10 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>3.7862265478430767E-5</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4179,22 +4220,22 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>7</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <f t="shared" si="13"/>
         <v>6.4234402960102431E-3</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="4">
         <f t="shared" si="14"/>
         <v>0.67984431565171566</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <f t="shared" si="15"/>
         <v>4.1260585236408158E-5</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <f t="shared" si="16"/>
         <v>4.3669393721707372E-3</v>
       </c>
@@ -4207,7 +4248,10 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>3.3150006258678945E-5</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4216,22 +4260,22 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>8</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <f t="shared" si="13"/>
         <v>6.1532321164109163E-3</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <f t="shared" si="14"/>
         <v>0.60521697028384669</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <f t="shared" si="15"/>
         <v>3.7862265478430767E-5</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <f t="shared" si="16"/>
         <v>3.7240404989474767E-3</v>
       </c>
@@ -4244,7 +4288,10 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>2.8235869887364706E-5</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4253,22 +4300,22 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>9</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <f t="shared" si="13"/>
         <v>5.757604211708108E-3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <f t="shared" si="14"/>
         <v>0.59336396574806516</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <f t="shared" si="15"/>
         <v>3.3150006258678945E-5</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <f t="shared" si="16"/>
         <v>3.4163548682668854E-3</v>
       </c>
@@ -4281,7 +4328,11 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <f>SUM(B30:B39)</f>
+        <v>5.1077828143084546E-4</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4290,22 +4341,22 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>10</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <f t="shared" si="13"/>
         <v>5.3137434909265903E-3</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <f t="shared" si="14"/>
         <v>0.54810287891037146</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <f>L40^2</f>
         <v>2.8235869887364706E-5</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <f t="shared" si="16"/>
         <v>2.9124781051681117E-3</v>
       </c>
@@ -4318,7 +4369,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4327,15 +4378,23 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="2">
-        <f>SUM(N31:N40)</f>
+      <c r="K41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="9">
+        <f>SUM(L31:L40)</f>
+        <v>7.072480583407835E-2</v>
+      </c>
+      <c r="M41" s="9">
+        <f>SUM(M31:M40)</f>
+        <v>7.4651593354033787</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" ref="N41:O41" si="17">SUM(N31:N40)</f>
         <v>5.1077828143084546E-4</v>
       </c>
-      <c r="O41" s="2">
-        <f>SUM(O31:O40)</f>
+      <c r="O41" s="9">
+        <f t="shared" si="17"/>
         <v>5.4089611474038735E-2</v>
       </c>
       <c r="P41" s="1"/>
@@ -4347,76 +4406,80 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I44" s="3" t="s">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J46" s="6">
         <f>AVERAGE(L18:L27)</f>
         <v>1.2883845052288092E-2</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K46" s="6">
         <f>AVERAGE(M18:M27)</f>
         <v>0.74651593354033785</v>
       </c>
-      <c r="L44" s="7">
-        <f>((O28/10)-(J44*K44))/((N28/10)-(J44^2))</f>
+      <c r="L46" s="6">
+        <f>((O28/10)-(J46*K46))/((N28/10)-(J46^2))</f>
         <v>88.341472345397833</v>
       </c>
-      <c r="M44" s="7">
-        <f>K44-L44*J44</f>
+      <c r="M46" s="6">
+        <f>K46-L46*J46</f>
         <v>-0.39166190784876143</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O44" s="3"/>
+      <c r="O46" s="2"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I45" s="3" t="s">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J47" s="6">
         <f>AVERAGE(L31:L40)</f>
         <v>7.072480583407835E-3</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K47" s="6">
         <f>AVERAGE(M31:M40)</f>
         <v>0.74651593354033785</v>
       </c>
-      <c r="L45" s="7">
-        <f>((O41/10)-(J45*K45))/((N41/10)-(J45^2))</f>
+      <c r="L47" s="6">
+        <f>((O41/10)-(J47*K47))/((N41/10)-(J47^2))</f>
         <v>122.17433937623541</v>
       </c>
-      <c r="M45" s="7">
-        <f>K45-L45*J45</f>
+      <c r="M47" s="6">
+        <f>K47-L47*J47</f>
         <v>-0.11755970948876637</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O45" s="3"/>
+      <c r="O47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lab8/lab8-yo.xlsx
+++ b/lab8/lab8-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F17508-71DD-4E7C-A0DA-DCF77FEFA5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BFFCB-B22E-405D-9661-451D3BC1B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="187" formatCode="0.000"/>
     <numFmt numFmtId="188" formatCode="0.0"/>
     <numFmt numFmtId="189" formatCode="0.0000"/>
-    <numFmt numFmtId="191" formatCode="0.000E+00"/>
+    <numFmt numFmtId="190" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -223,14 +223,14 @@
     <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +560,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1010,7 +1010,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2293,15 +2293,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>93344</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2329,15 +2329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>430529</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2666,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09815-60D7-F244-973D-B8EA8DA4B9D3}">
   <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="K36" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2810,7 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f>D11/E11</f>
         <v>8.5567598402738147E-3</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:L13" si="0">D12/E12</f>
         <v>8.3500334001335996E-3</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>7.2611094975312228E-3</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>6.8322981366459624E-3</v>
       </c>
@@ -3029,12 +3029,12 @@
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3">
         <f>AVERAGE(H5:H7)</f>
         <v>6.166666666666667</v>
@@ -3044,7 +3044,7 @@
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>6.2053986968662747E-3</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>4.7169811320754715E-3</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="K10" s="2">
         <v>7</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>3.4672060098237503E-3</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="K11" s="2">
         <v>8</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>2.8142589118198874E-3</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="K12" s="2">
         <v>9</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>2.4031240612796636E-3</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>1.8909549322407816E-3</v>
       </c>
@@ -3882,19 +3882,19 @@
       <c r="K28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <f>SUM(L18:L27)</f>
         <v>0.12883845052288093</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <f>SUM(M18:M27)</f>
         <v>7.4651593354033787</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <f>SUM(N18:N27)</f>
         <v>1.6801209322844211E-3</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="8">
         <f>SUM(O18:O27)</f>
         <v>9.7963243540258427E-2</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>6.8561573412471852E-5</v>
       </c>
       <c r="C30" s="1"/>
@@ -3969,7 +3969,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>6.6965851234208589E-5</v>
       </c>
       <c r="C31" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>6.4501125820884864E-5</v>
       </c>
       <c r="C32" s="1"/>
@@ -4049,7 +4049,7 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>6.1076042819548155E-5</v>
       </c>
       <c r="C33" s="1"/>
@@ -4089,7 +4089,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>5.8398048285155983E-5</v>
       </c>
       <c r="C34" s="1"/>
@@ -4129,7 +4129,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>5.0766912997693582E-5</v>
       </c>
       <c r="C35" s="1"/>
@@ -4169,7 +4169,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>4.1260585236408158E-5</v>
       </c>
       <c r="C36" s="1"/>
@@ -4209,7 +4209,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>3.7862265478430767E-5</v>
       </c>
       <c r="C37" s="1"/>
@@ -4249,7 +4249,7 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>3.3150006258678945E-5</v>
       </c>
       <c r="C38" s="1"/>
@@ -4289,7 +4289,7 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>2.8235869887364706E-5</v>
       </c>
       <c r="C39" s="1"/>
@@ -4329,7 +4329,7 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <f>SUM(B30:B39)</f>
         <v>5.1077828143084546E-4</v>
       </c>
@@ -4381,19 +4381,19 @@
       <c r="K41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <f>SUM(L31:L40)</f>
         <v>7.072480583407835E-2</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <f>SUM(M31:M40)</f>
         <v>7.4651593354033787</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <f t="shared" ref="N41:O41" si="17">SUM(N31:N40)</f>
         <v>5.1077828143084546E-4</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="8">
         <f t="shared" si="17"/>
         <v>5.4089611474038735E-2</v>
       </c>
@@ -4407,8 +4407,8 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I45" s="2"/>
